--- a/data/trans_orig/P39B_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Clase-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+          <t>Población según lo que piensan que es lo mejor que se puede hacer cuando creen que a alguien le está dando un ataque al corazón en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>26685</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6089</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>2619</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>13442</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>19075</v>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>45761</v>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7999</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17492</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>107566</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3638</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>9633</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>95897</v>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>252</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>203463</v>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6943</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3173</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>15189</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>147228</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>477445</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>465931</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>485116</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>111965</v>
+          <t>95,75%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>93,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97,28%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>658</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>430915</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>351</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>259192</v>
+          <t>422919</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>435861</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>97,15%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>908360</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>895630</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>918733</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>96,4%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>68658</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>2863</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>15773</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>74336</v>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>142994</v>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8760</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>19396</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -959,70 +1175,112 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>80470</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>9161</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>99693</v>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>3835</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>249</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>180162</v>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8293</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4396</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>14355</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -1033,20 +1291,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>487</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>430607</v>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>498656</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>498656</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>498656</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1054,32 +1316,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>400966</v>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>679</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>443579</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1116</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>831573</v>
+          <t>443579</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>443579</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1092,6 +1362,36 @@
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1229</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>942235</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>942235</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>942235</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1105,70 +1405,112 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>22311</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5434</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>11970</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>21875</v>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>44185</v>
+          <t>1472</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8512</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9394</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>5229</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>16371</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>97309</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2617</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>9079</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>83627</v>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>180936</v>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9777</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6730</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13707</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>108752</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>433471</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>424038</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>439549</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>107695</v>
+          <t>96,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>94,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>97,99%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>562</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>363965</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>216447</v>
+          <t>354648</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>369822</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>95,93%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>797436</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>784585</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>806044</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>96,31%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>94,76%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>97,35%</t>
         </is>
       </c>
     </row>
@@ -1318,70 +1744,112 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>75305</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5033</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>13552</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>57752</v>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>133056</v>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11673</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8890</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17585</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -1389,70 +1857,112 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>82191</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>453</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>5546</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>63558</v>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>145749</v>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9402</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5525</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2351</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>10734</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -1463,20 +1973,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>423</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>385868</v>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>448578</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>448578</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>448578</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1484,32 +1998,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>530</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>334507</v>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>584</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>379397</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>953</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>720374</v>
+          <t>379397</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>379397</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1522,6 +2044,36 @@
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>827975</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>827975</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>827975</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1535,70 +2087,112 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>27546</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7712</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>17458</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>11772</v>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>39319</v>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>18666</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>109743</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1372</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>5555</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>34764</v>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>144507</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4571</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2558</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6476</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -1677,70 +2313,112 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>98766</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>631740</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>610956</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>651972</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>42028</v>
+          <t>95,79%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>92,64%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>98,85%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>263</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>153442</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>193</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>140793</v>
+          <t>146061</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>157501</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>92,74%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>785182</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>762867</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>807557</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>95,18%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>92,47%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>97,89%</t>
         </is>
       </c>
     </row>
@@ -1748,70 +2426,112 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>68253</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13520</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>2636</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>24539</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>25112</v>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>8026</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>93365</v>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13512</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>21546</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>8313</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>34933</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
         </is>
       </c>
     </row>
@@ -1819,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>63647</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>721</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>13525</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>38378</v>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>780</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>102025</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2401</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>5961</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>13705</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -1893,20 +2655,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>433</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>367955</v>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>659525</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>659525</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>659525</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1914,32 +2680,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>267</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>152054</v>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>165446</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>700</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>520009</v>
+          <t>165446</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>165446</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1952,6 +2726,36 @@
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>824971</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>824971</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>824971</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1965,70 +2769,112 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>65426</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8114</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>14743</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>59418</v>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>8270</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>124844</v>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>15565</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>16384</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>9986</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>25294</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -2036,70 +2882,112 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>214</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>207342</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19131</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>9953</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>32797</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>260</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>167892</v>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>6718</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>474</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>375235</v>
+          <t>2668</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>12688</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>25850</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>14124</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>40310</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2995,112 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>299</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>252218</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>929758</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>909212</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>946060</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>356</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>423339</v>
+          <t>91,62%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>89,6%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>93,23%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>933542</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>75,22%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>655</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>675557</v>
+          <t>918973</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>950074</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>96,64%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1863300</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1837463</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1895990</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>94,07%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>92,76%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -2178,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>155649</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>43599</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>32829</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>56934</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>98939</v>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>16521</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>358</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>254588</v>
+          <t>8135</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>25906</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>60119</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>41718</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>77663</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -2249,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>161870</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>14200</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>8789</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>21493</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>248</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>140375</v>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>944</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>302244</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3237</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>15143</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>8903</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>23233</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -2323,20 +3337,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>965</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>842505</v>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1014801</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1014801</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1014801</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -2344,32 +3362,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>1118</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>889963</v>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>965995</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>2083</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>1732468</v>
+          <t>965995</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>965995</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2382,6 +3408,36 @@
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>1980796</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>1980796</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>1980796</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2395,70 +3451,112 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>41612</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>6681</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>47632</v>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>89244</v>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>14105</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>9422</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>5376</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>16928</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -2466,70 +3564,112 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>96031</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3474</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>8771</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>136797</v>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>6019</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>338</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>232828</v>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>10185</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>9493</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>5427</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>15071</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -2537,70 +3677,112 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>118045</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>407706</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>393525</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>418235</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>346</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>223583</v>
+          <t>90,66%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>87,51%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>93,01%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>749957</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>472</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>341628</v>
+          <t>734447</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>766966</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>92,42%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>1157663</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>1136726</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>1177347</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>91,79%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>90,13%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>93,35%</t>
         </is>
       </c>
     </row>
@@ -2608,70 +3790,112 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>54895</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>24709</t>
+        </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>16108</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>37272</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>115438</v>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>36502</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>170333</v>
+          <t>25322</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>46890</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>61211</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>46675</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>77710</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -2679,70 +3903,112 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>69513</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>12682</t>
+        </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>7564</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>20406</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>170572</v>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>10683</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>387</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>240085</v>
+          <t>5942</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>18205</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>23365</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>15694</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>34048</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -2753,20 +4019,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>444</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>380096</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>449687</t>
+        </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>449687</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>449687</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2774,32 +4044,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>1168</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>694021</v>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>811466</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>1612</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>1074117</v>
+          <t>811466</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>811466</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2812,6 +4090,36 @@
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>1261153</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>1261153</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>1261153</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2825,70 +4133,112 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>23001</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>46381</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5085</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>69382</v>
+          <t>2411</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>9446</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>5085</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>2304</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>9395</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -2896,70 +4246,112 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>32954</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>245</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>159840</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>11676</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>259</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>192795</v>
+          <t>7144</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>18108</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>11676</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>7291</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>18442</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -2967,70 +4359,112 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>30598</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>224226</t>
+        </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>212775</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>230956</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>175819</v>
+          <t>94,42%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>89,6%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>97,26%</t>
+        </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>675538</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>310</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>206417</v>
+          <t>662533</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>686417</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>93,28%</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>899765</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>883235</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>913806</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>93,56%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>91,84%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>95,02%</t>
         </is>
       </c>
     </row>
@@ -3038,70 +4472,112 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>6268</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>4927</t>
+        </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>1492</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>12781</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>103173</v>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>23380</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>109442</v>
+          <t>16217</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>34376</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>28307</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>19840</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>41418</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -3109,70 +4585,112 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>5127</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>8322</t>
+        </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>19080</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>129499</v>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>8536</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>234</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>134626</v>
+          <t>4939</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>14377</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>16858</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>9107</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>28277</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -3183,20 +4701,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>97948</v>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>237475</t>
+        </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>237475</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>237475</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -3204,32 +4726,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>1014</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>614713</v>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>724214</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>1063</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>712662</v>
+          <t>724214</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>724214</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3242,6 +4772,36 @@
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>961690</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>961690</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>961690</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -3255,70 +4815,112 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>204</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>206581</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>28465</t>
+        </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>19168</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>40450</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>291</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>206153</v>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>31422</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>495</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>412734</v>
+          <t>22725</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>41488</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>59887</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>46092</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>76610</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -3326,70 +4928,112 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>667</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>650947</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>30232</t>
+        </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>20083</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>48777</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>1061</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>678817</v>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>33017</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>1728</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>1329764</v>
+          <t>23931</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>44162</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>49201</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>82994</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -3397,70 +5041,112 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>845</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>755606</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>3104348</t>
+        </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>3074767</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>3152799</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>1424</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>1084429</v>
+          <t>93,82%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>92,93%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>95,29%</t>
+        </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>4746</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>3307359</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>2269</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>1840034</v>
+          <t>3280748</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>3340882</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>94,76%</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>7705</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>6411706</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>6362938</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>6466238</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>94,31%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>93,59%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>95,11%</t>
         </is>
       </c>
     </row>
@@ -3468,70 +5154,112 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>524</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>429028</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>98813</t>
+        </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>72185</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>121524</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>853</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>474750</v>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>169</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>90021</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>1377</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>903778</v>
+          <t>71536</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>109313</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>188834</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>158214</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>221402</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
         </is>
       </c>
     </row>
@@ -3539,70 +5267,112 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>561</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>462817</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>46866</t>
+        </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>33296</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>63639</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>1097</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>642075</v>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>28278</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>1658</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>1104892</v>
+          <t>19767</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>38027</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>75145</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>58929</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>95345</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -3613,20 +5383,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>2801</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>2504979</v>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>3214</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>3308723</t>
+        </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3308723</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3308723</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -3634,32 +5408,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>4726</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>3086224</v>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5075</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3490098</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>7527</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>5591202</v>
+          <t>3490098</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>3490098</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
@@ -3672,6 +5454,36 @@
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>8289</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>6798821</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>6798821</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>6798821</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -3686,17 +5498,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P39B_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Clase-trans_orig.xlsx
@@ -4128,7 +4128,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
